--- a/biology/Histoire de la zoologie et de la botanique/Augustus_Radcliffe_Grote/Augustus_Radcliffe_Grote.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Augustus_Radcliffe_Grote/Augustus_Radcliffe_Grote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Augustus (ou August) Radcliffe Grote (7 février 1841 à Aigburth près de Liverpool - 19 septembre 1903 à Hildesheim) est un entomologiste américain d'origine britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît d’un père allemand et d’une mère galloise. Lorsqu'il a sept ans, sa famille s’installe dans une grande ferme acquise par son père à Staten Island près de New York. Le jeune Grote passe son enfance à parcourir la campagne à la découverte de la nature et notamment des papillons. À dix ans, il commence une collection d’insectes qu’il détermine à l’aide du Handbuch für Schmetterlingsliebhaber de Johann Wilhelm Meigen (1764-1845). Les ouvrages de John Goodlove Morris (1803-1895), notamment Synopsis of North America Lepidoptera, lui font découvrir la taxinomie.
 Son père, ayant investi son argent dans la Staten Island Railway, est ruiné par la panique de 1857, aussi le jeune Grote est obligé d’interrompre sa préparation destinée à le faire entrer à l'université Harvard et doit regagner le continent pour poursuivre ses études. Il revient seulement quelques années plus tard obtenir son Bachelor of Arts au Lafayette College de Pennsylvanie.
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The effect of the glacial epoch upon the distribution of insects in North America, Salem, Mass., imprimé par les Salem press, 1876.
 Notes on the Sphingidæ of Cuba, Philadelphia, 1865.
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Arnold Mallis (1971). American Entomologists, Rutgers University Press (New Brunswick) : xvii + 549 p.</t>
         </is>
